--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cxcl14</t>
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.714104410489829</v>
+        <v>1.172343333333333</v>
       </c>
       <c r="H2">
-        <v>0.714104410489829</v>
+        <v>3.51703</v>
       </c>
       <c r="I2">
-        <v>0.001254238335581062</v>
+        <v>0.002035925897810539</v>
       </c>
       <c r="J2">
-        <v>0.001254238335581062</v>
+        <v>0.002035925897810539</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.1594514786061</v>
+        <v>223.2367336666667</v>
       </c>
       <c r="N2">
-        <v>75.1594514786061</v>
+        <v>669.710201</v>
       </c>
       <c r="O2">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492647</v>
       </c>
       <c r="P2">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492646</v>
       </c>
       <c r="Q2">
-        <v>53.67169579086892</v>
+        <v>261.7100964692255</v>
       </c>
       <c r="R2">
-        <v>53.67169579086892</v>
+        <v>2355.39086822303</v>
       </c>
       <c r="S2">
-        <v>0.001097019856817721</v>
+        <v>0.001939015004493327</v>
       </c>
       <c r="T2">
-        <v>0.001097019856817721</v>
+        <v>0.001939015004493327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.714104410489829</v>
+        <v>1.172343333333333</v>
       </c>
       <c r="H3">
-        <v>0.714104410489829</v>
+        <v>3.51703</v>
       </c>
       <c r="I3">
-        <v>0.001254238335581062</v>
+        <v>0.002035925897810539</v>
       </c>
       <c r="J3">
-        <v>0.001254238335581062</v>
+        <v>0.002035925897810539</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.07541410519073</v>
+        <v>4.280784333333333</v>
       </c>
       <c r="N3">
-        <v>4.07541410519073</v>
+        <v>12.842353</v>
       </c>
       <c r="O3">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="P3">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="Q3">
-        <v>2.91027118708916</v>
+        <v>5.018548974621111</v>
       </c>
       <c r="R3">
-        <v>2.91027118708916</v>
+        <v>45.16694077159</v>
       </c>
       <c r="S3">
-        <v>5.948433776717834E-05</v>
+        <v>3.718252331055637E-05</v>
       </c>
       <c r="T3">
-        <v>5.948433776717834E-05</v>
+        <v>3.718252331055637E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.714104410489829</v>
+        <v>1.172343333333333</v>
       </c>
       <c r="H4">
-        <v>0.714104410489829</v>
+        <v>3.51703</v>
       </c>
       <c r="I4">
-        <v>0.001254238335581062</v>
+        <v>0.002035925897810539</v>
       </c>
       <c r="J4">
-        <v>0.001254238335581062</v>
+        <v>0.002035925897810539</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.69599951391292</v>
+        <v>6.876463666666666</v>
       </c>
       <c r="N4">
-        <v>6.69599951391292</v>
+        <v>20.629391</v>
       </c>
       <c r="O4">
-        <v>0.07792310139434849</v>
+        <v>0.02933720233672951</v>
       </c>
       <c r="P4">
-        <v>0.07792310139434849</v>
+        <v>0.0293372023367295</v>
       </c>
       <c r="Q4">
-        <v>4.781642785522967</v>
+        <v>8.061576336525555</v>
       </c>
       <c r="R4">
-        <v>4.781642785522967</v>
+        <v>72.55418702873</v>
       </c>
       <c r="S4">
-        <v>9.773414099616195E-05</v>
+        <v>5.972837000665546E-05</v>
       </c>
       <c r="T4">
-        <v>9.773414099616195E-05</v>
+        <v>5.972837000665546E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>568.6389365799211</v>
+        <v>574.5849303333333</v>
       </c>
       <c r="H5">
-        <v>568.6389365799211</v>
+        <v>1723.754791</v>
       </c>
       <c r="I5">
-        <v>0.9987457616644189</v>
+        <v>0.9978410819560519</v>
       </c>
       <c r="J5">
-        <v>0.9987457616644189</v>
+        <v>0.9978410819560519</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>75.1594514786061</v>
+        <v>223.2367336666667</v>
       </c>
       <c r="N5">
-        <v>75.1594514786061</v>
+        <v>669.710201</v>
       </c>
       <c r="O5">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492647</v>
       </c>
       <c r="P5">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492646</v>
       </c>
       <c r="Q5">
-        <v>42738.59056272475</v>
+        <v>128268.4630617025</v>
       </c>
       <c r="R5">
-        <v>42738.59056272475</v>
+        <v>1154416.167555323</v>
       </c>
       <c r="S5">
-        <v>0.873553216622755</v>
+        <v>0.950343444274362</v>
       </c>
       <c r="T5">
-        <v>0.873553216622755</v>
+        <v>0.9503434442743619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>568.6389365799211</v>
+        <v>574.5849303333333</v>
       </c>
       <c r="H6">
-        <v>568.6389365799211</v>
+        <v>1723.754791</v>
       </c>
       <c r="I6">
-        <v>0.9987457616644189</v>
+        <v>0.9978410819560519</v>
       </c>
       <c r="J6">
-        <v>0.9987457616644189</v>
+        <v>0.9978410819560519</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.07541410519073</v>
+        <v>4.280784333333333</v>
       </c>
       <c r="N6">
-        <v>4.07541410519073</v>
+        <v>12.842353</v>
       </c>
       <c r="O6">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="P6">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="Q6">
-        <v>2317.439142898467</v>
+        <v>2459.674167940358</v>
       </c>
       <c r="R6">
-        <v>2317.439142898467</v>
+        <v>22137.06751146322</v>
       </c>
       <c r="S6">
-        <v>0.04736717778831153</v>
+        <v>0.0182237719604441</v>
       </c>
       <c r="T6">
-        <v>0.04736717778831153</v>
+        <v>0.0182237719604441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>574.5849303333333</v>
+      </c>
+      <c r="H7">
+        <v>1723.754791</v>
+      </c>
+      <c r="I7">
+        <v>0.9978410819560519</v>
+      </c>
+      <c r="J7">
+        <v>0.9978410819560519</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.876463666666666</v>
+      </c>
+      <c r="N7">
+        <v>20.629391</v>
+      </c>
+      <c r="O7">
+        <v>0.02933720233672951</v>
+      </c>
+      <c r="P7">
+        <v>0.0293372023367295</v>
+      </c>
+      <c r="Q7">
+        <v>3951.112396851364</v>
+      </c>
+      <c r="R7">
+        <v>35560.01157166228</v>
+      </c>
+      <c r="S7">
+        <v>0.02927386572124578</v>
+      </c>
+      <c r="T7">
+        <v>0.02927386572124578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>568.6389365799211</v>
-      </c>
-      <c r="H7">
-        <v>568.6389365799211</v>
-      </c>
-      <c r="I7">
-        <v>0.9987457616644189</v>
-      </c>
-      <c r="J7">
-        <v>0.9987457616644189</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.69599951391292</v>
-      </c>
-      <c r="N7">
-        <v>6.69599951391292</v>
-      </c>
-      <c r="O7">
-        <v>0.07792310139434849</v>
-      </c>
-      <c r="P7">
-        <v>0.07792310139434849</v>
-      </c>
-      <c r="Q7">
-        <v>3807.606042931111</v>
-      </c>
-      <c r="R7">
-        <v>3807.606042931111</v>
-      </c>
-      <c r="S7">
-        <v>0.07782536725335233</v>
-      </c>
-      <c r="T7">
-        <v>0.07782536725335233</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.07082233333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.212467</v>
+      </c>
+      <c r="I8">
+        <v>0.0001229921461375399</v>
+      </c>
+      <c r="J8">
+        <v>0.0001229921461375399</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>223.2367336666667</v>
+      </c>
+      <c r="N8">
+        <v>669.710201</v>
+      </c>
+      <c r="O8">
+        <v>0.9523995969492647</v>
+      </c>
+      <c r="P8">
+        <v>0.9523995969492646</v>
+      </c>
+      <c r="Q8">
+        <v>15.81014636398522</v>
+      </c>
+      <c r="R8">
+        <v>142.291317275867</v>
+      </c>
+      <c r="S8">
+        <v>0.0001171376704093181</v>
+      </c>
+      <c r="T8">
+        <v>0.000117137670409318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.07082233333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.212467</v>
+      </c>
+      <c r="I9">
+        <v>0.0001229921461375399</v>
+      </c>
+      <c r="J9">
+        <v>0.0001229921461375399</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.280784333333333</v>
+      </c>
+      <c r="N9">
+        <v>12.842353</v>
+      </c>
+      <c r="O9">
+        <v>0.01826320071400582</v>
+      </c>
+      <c r="P9">
+        <v>0.01826320071400582</v>
+      </c>
+      <c r="Q9">
+        <v>0.3031751349834444</v>
+      </c>
+      <c r="R9">
+        <v>2.728576214851</v>
+      </c>
+      <c r="S9">
+        <v>2.246230251156226E-06</v>
+      </c>
+      <c r="T9">
+        <v>2.246230251156226E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.07082233333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.212467</v>
+      </c>
+      <c r="I10">
+        <v>0.0001229921461375399</v>
+      </c>
+      <c r="J10">
+        <v>0.0001229921461375399</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.876463666666666</v>
+      </c>
+      <c r="N10">
+        <v>20.629391</v>
+      </c>
+      <c r="O10">
+        <v>0.02933720233672951</v>
+      </c>
+      <c r="P10">
+        <v>0.0293372023367295</v>
+      </c>
+      <c r="Q10">
+        <v>0.4870072019552222</v>
+      </c>
+      <c r="R10">
+        <v>4.383064817596999</v>
+      </c>
+      <c r="S10">
+        <v>3.608245477065612E-06</v>
+      </c>
+      <c r="T10">
+        <v>3.608245477065611E-06</v>
       </c>
     </row>
   </sheetData>
